--- a/评分标准.xlsx
+++ b/评分标准.xlsx
@@ -142,7 +142,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +152,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -771,137 +764,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,7 +916,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -932,22 +925,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1481,7 +1471,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1669,7 +1659,7 @@
       <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="8">
@@ -1678,7 +1668,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="8">
@@ -1686,11 +1676,11 @@
       </c>
     </row>
     <row r="22" ht="14.75" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>5</v>
       </c>
     </row>
